--- a/src/com/thoughtworks/testcases/Palindrome_Testcases.xlsx
+++ b/src/com/thoughtworks/testcases/Palindrome_Testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sraj2/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D15AF6-9894-8549-9066-85F1FDA94CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5B7E612-E84A-534F-ACB7-23F75C3CB85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="600" windowWidth="28040" windowHeight="17440" xr2:uid="{D34C8452-662F-454F-8E0D-6711D30C92F8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
   <si>
     <t>Test Description</t>
   </si>
@@ -466,6 +466,33 @@
   <si>
     <t xml:space="preserve">                                   </t>
   </si>
+  <si>
+    <t>TestScenario _07</t>
+  </si>
+  <si>
+    <t>Verify that the valid message is thrown when user enters an invalid put</t>
+  </si>
+  <si>
+    <t>W= e</t>
+  </si>
+  <si>
+    <t>Enter value of invalid word length</t>
+  </si>
+  <si>
+    <t>Enter valid input message is displayed</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>Enter value of invalid alphabet length</t>
+  </si>
+  <si>
+    <t>Enter value of invalid numeric length</t>
+  </si>
+  <si>
+    <t>Enter value of invalid special charcater length</t>
+  </si>
 </sst>
 </file>
 
@@ -473,7 +500,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -792,84 +819,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1191,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E93B0D-36DB-7A4D-B3EC-A9056DE7B261}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="99" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1213,594 +1243,691 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="14"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="16"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="29">
         <v>44032</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="38" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="38" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="38" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" ht="76" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="95" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" ht="95" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" ht="95" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="8">
         <v>1243421</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
+  <mergeCells count="16">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B14:J14"/>
